--- a/src/dbBuilders/Powers.xlsx
+++ b/src/dbBuilders/Powers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn.Mahon.AMER\Flim\projectflimflam\src\dbBuilders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B25A5-7DCB-4038-B1F7-07E7A44AC43B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0532171-B6F9-4FB8-96B5-8A290F7F0A7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="132" windowWidth="17892" windowHeight="7728" xr2:uid="{E09485CA-4F57-4469-A5FE-53BEB39ECED0}"/>
+    <workbookView xWindow="42180" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{E09485CA-4F57-4469-A5FE-53BEB39ECED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -45,15 +45,6 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
     <t>Miss</t>
   </si>
   <si>
@@ -72,15 +63,6 @@
     <t>One nearby or far away Creature</t>
   </si>
   <si>
-    <t>Int+levelvs pd</t>
-  </si>
-  <si>
-    <t>4d10 acid &amp; 5 ongoing</t>
-  </si>
-  <si>
-    <t>5 ongoing</t>
-  </si>
-  <si>
     <t>Wizard</t>
   </si>
   <si>
@@ -102,21 +84,6 @@
     <t>One Enemy</t>
   </si>
   <si>
-    <t>Dex+Level vs AC</t>
-  </si>
-  <si>
-    <t>Weapon+dex</t>
-  </si>
-  <si>
-    <t>Dmg equal to level</t>
-  </si>
-  <si>
-    <t>10 ongoing</t>
-  </si>
-  <si>
-    <t>5d10 acid and 10 ongoing</t>
-  </si>
-  <si>
     <t>Effect</t>
   </si>
   <si>
@@ -142,19 +109,159 @@
   </si>
   <si>
     <t>The bonus also applies to PD.</t>
+  </si>
+  <si>
+    <t>Attack Stat</t>
+  </si>
+  <si>
+    <t>Opposed</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Dmg Mult</t>
+  </si>
+  <si>
+    <t>Dmg Die</t>
+  </si>
+  <si>
+    <t>Acid Damage.  5 Ongoing Hit or Miss</t>
+  </si>
+  <si>
+    <t>Acid Damage.  10 Ongoing Hit or Miss</t>
+  </si>
+  <si>
+    <t>Mod</t>
+  </si>
+  <si>
+    <t>Add Level to attack?</t>
+  </si>
+  <si>
+    <t>Deadly Thrust</t>
+  </si>
+  <si>
+    <t>One staggered non-mook</t>
+  </si>
+  <si>
+    <t>Attack Stat 2</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Flying Blade</t>
+  </si>
+  <si>
+    <t>One nearby Creature</t>
+  </si>
+  <si>
+    <t>Special: You must use a small bladed weapon with this attack.  If your natural attack roll is even and one of your allies is engaged with the target, you can use your Sneak Attack damage for the round.</t>
+  </si>
+  <si>
+    <t>Roll with It</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>A melee attack that target AC hits you</t>
+  </si>
+  <si>
+    <t>Requires Momentum.  You take half damage from that attack.</t>
+  </si>
+  <si>
+    <t>Sure Cut</t>
+  </si>
+  <si>
+    <t>Requires Momentum for sneak attack dmg.  Deal sneak attack dmg on hit or miss</t>
+  </si>
+  <si>
+    <t>Tumbling Strike</t>
+  </si>
+  <si>
+    <r>
+      <t>Always: You gain a +5 bonus to all disengage checks you attempt this turn. You can also move to engage an enemy, make this attack against it, and then use a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quick action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> to attempt to disengage from it (the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quick action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> disengage lets you move again if you succeed).</t>
+    </r>
+  </si>
+  <si>
+    <t>Target/Trigger</t>
+  </si>
+  <si>
+    <t>Weapon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0033CC"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,9 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,138 +602,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59F4E3B-B84B-440F-8FFB-889443F3AD16}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
+      <c r="Q3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -638,80 +785,325 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
